--- a/Python/exercise/exelpracticefiles/Programing.xlsx
+++ b/Python/exercise/exelpracticefiles/Programing.xlsx
@@ -50,24 +50,6 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thick"/>
-      <bottom style="thick"/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right style="thin"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thick"/>
       <bottom style="thin"/>
     </border>
     <border>
@@ -157,6 +139,24 @@
     <border>
       <left style="thin"/>
       <right style="thin"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
       <bottom style="thick"/>
     </border>
     <border>
@@ -168,44 +168,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -571,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -593,265 +602,346 @@
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Method</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Kind</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>cv2.IMREAD_(이미지 색상 설정)</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>COLOR</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n"/>
-      <c r="B3" s="8" t="n"/>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="A3" s="5" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>GRAYSCALE</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="11" t="n"/>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="A4" s="8" t="n"/>
+      <c r="B4" s="9" t="n"/>
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>UNCHANGED</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>cv2.COLOR_(회색으로 이미지 변경)</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>BGR2GRAY</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>cv2.LINE_(선 그릴때 선 스타일)</t>
         </is>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="9" t="n">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="7" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="n"/>
-      <c r="B8" s="11" t="n"/>
-      <c r="C8" s="14" t="inlineStr">
+      <c r="A8" s="8" t="n"/>
+      <c r="B8" s="9" t="n"/>
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>cv2.FONT_(글꼴 종류)</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>HERSHEY_SIMPLEX</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="A10" s="5" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>HERSHEY_PLAIN</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>HERSHEY_SCRIPT_SIMPLEX</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>HERSHEY_TRIPLEX</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="11" t="n"/>
-      <c r="C13" s="14" t="inlineStr">
+      <c r="A13" s="8" t="n"/>
+      <c r="B13" s="9" t="n"/>
+      <c r="C13" s="10" t="inlineStr">
         <is>
           <t>ITALC</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>cv2.INTER_(보간법)</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>AREA</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="8" t="n"/>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>CUBIC</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="11" t="n"/>
-      <c r="C16" s="14" t="inlineStr">
+      <c r="A16" s="8" t="n"/>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>LINEAR</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>cv2.ROTATE_(회전)</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>90_CLOCKWISE</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n"/>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="9" t="n">
+      <c r="A18" s="5" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="7" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
-      <c r="B19" s="11" t="n"/>
-      <c r="C19" s="14" t="inlineStr">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="10" t="inlineStr">
         <is>
           <t>90_COUNTERCLOCKWISE</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>cv2.EVENT_(마우스 이벤트)</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>LBUTTONDOWN</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="9" t="inlineStr">
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="7" t="inlineStr">
         <is>
           <t>LBUTTONDBLCLK</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n"/>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="9" t="inlineStr">
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="7" t="inlineStr">
         <is>
           <t>MOUSEWHEEL</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="n"/>
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="14" t="inlineStr">
+      <c r="A23" s="8" t="n"/>
+      <c r="B23" s="9" t="n"/>
+      <c r="C23" s="10" t="inlineStr">
         <is>
           <t>MOUSEMOVE</t>
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>cv2.THRESH_(검/흰 만 표현)</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>BINARY</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>BINARY_INV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="7" t="inlineStr">
+        <is>
+          <t>OTSU</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="n"/>
+      <c r="B27" s="9" t="n"/>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t>ADAPTIVE_....MEAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>cv2.RECT_(사각형으로 인식)</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>EXTERNAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>LIST</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="n"/>
+      <c r="B30" s="15" t="n"/>
+      <c r="C30" s="10" t="inlineStr">
+        <is>
+          <t>TREE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="B5"/>
     <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
